--- a/Outputs/appendix/t-sampling.xlsx
+++ b/Outputs/appendix/t-sampling.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
   <si>
     <t>state name</t>
   </si>
@@ -132,7 +132,7 @@
     <t>694</t>
   </si>
   <si>
-    <t>survey</t>
+    <t>Surveyed</t>
   </si>
   <si>
     <t>128</t>
@@ -192,7 +192,61 @@
     <t>604</t>
   </si>
   <si>
-    <t>nosurvey</t>
+    <t>Completed Vignette</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>Not Surveyed</t>
   </si>
   <si>
     <t>3</t>
@@ -222,22 +276,16 @@
     <t>19</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>77</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>permagone</t>
+    <t>Gone Permanently</t>
   </si>
   <si>
     <t>0</t>
@@ -261,7 +309,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>tempgone</t>
+    <t>Gone Temporarily</t>
   </si>
   <si>
     <t>120</t>
@@ -273,9 +321,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
@@ -294,7 +339,7 @@
     <t>68</t>
   </si>
   <si>
-    <t>refuse</t>
+    <t>Refused</t>
   </si>
   <si>
     <t>6</t>
@@ -309,7 +354,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>noreason</t>
+    <t>No Reason Given</t>
   </si>
 </sst>
 </file>
@@ -353,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -370,16 +415,19 @@
         <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2">
@@ -396,16 +444,19 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -422,16 +473,19 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -445,19 +499,22 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
       <c r="F4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -471,19 +528,22 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -497,19 +557,22 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>109</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +586,22 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -549,19 +615,22 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -575,19 +644,22 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>92</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10">
@@ -601,19 +673,22 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -627,19 +702,22 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>110</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -653,19 +731,22 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -679,19 +760,22 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +789,22 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -731,19 +818,22 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -757,19 +847,22 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -783,19 +876,22 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -809,19 +905,22 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -835,19 +934,22 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
       <c r="F19" t="s">
         <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>109</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -861,19 +963,22 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>112</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
